--- a/data-raw/FixedRUSESTHeat19901993.xlsx
+++ b/data-raw/FixedRUSESTHeat19901993.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F49E1C6-88C1-E84C-8033-2345B7B17145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1614C143-FF55-E446-9D87-DEC52FB954E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45640" windowHeight="28180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45640" windowHeight="28180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="2" r:id="rId1"/>
@@ -1256,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEDCB0B-213C-AD4A-9376-DC95417C0D54}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6701,7 +6701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064F0D75-B8CE-234A-AF5D-C45E0A78FF18}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/FixedRUSESTHeat19901993.xlsx
+++ b/data-raw/FixedRUSESTHeat19901993.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1614C143-FF55-E446-9D87-DEC52FB954E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC8AF25-09CA-FF44-9071-3EB922687ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45640" windowHeight="28180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45640" windowHeight="28180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="2" r:id="rId1"/>
@@ -1256,7 +1256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEDCB0B-213C-AD4A-9376-DC95417C0D54}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
@@ -6702,7 +6702,7 @@
   <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8462,8 +8462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3863BE12-968E-D34A-ABE0-3AC81C7830A5}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data-raw/FixedRUSESTHeat19901993.xlsx
+++ b/data-raw/FixedRUSESTHeat19901993.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC8AF25-09CA-FF44-9071-3EB922687ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF38B0A-C67B-0646-9BA8-AFACFA2932DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="45640" windowHeight="28180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="71">
   <si>
     <t>Country</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>to specific sectors by the proportion found in 1992 (RUS) and 1993 (EST).</t>
+  </si>
+  <si>
+    <t>EnergyType</t>
+  </si>
+  <si>
+    <t>LastStage</t>
+  </si>
+  <si>
+    <t>LedgerSide</t>
+  </si>
+  <si>
+    <t>FlowAggregationPoint</t>
   </si>
 </sst>
 </file>
@@ -950,9 +962,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -990,7 +1002,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1096,7 +1108,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1238,7 +1250,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8463,7 +8475,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8481,16 +8493,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
